--- a/Industry/201612-201908/HKD/MILLION/Analysis_112_23.1 - Sports Equipment and Accessories_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_112_23.1 - Sports Equipment and Accessories_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="384" yWindow="384"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -31285,6 +31286,1666 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17738.333</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19376.624</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.236000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12623.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19121.908</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.315</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11886.038</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-5.839</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7077.235</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6958.556</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.677</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4472.353</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6688.745</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-3.877</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3951.462</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-11.647</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39.898</v>
+      </c>
+      <c r="K3" t="n">
+        <v>35.912</v>
+      </c>
+      <c r="L3" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34.979</v>
+      </c>
+      <c r="N3" t="n">
+        <v>33.245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4111.85</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4689.289</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.043</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3236.499</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5042.602</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.534</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3213.97</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.696</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.181</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.201</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25.639</v>
+      </c>
+      <c r="M4" t="n">
+        <v>26.371</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1230.557</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1245.529</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>893.324</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1362.309</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.375999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>929.273</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.024</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.937</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.428</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.077</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.124</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1151.689</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1395.841</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.199</v>
+      </c>
+      <c r="E6" t="n">
+        <v>969.131</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1441.65</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.282</v>
+      </c>
+      <c r="H6" t="n">
+        <v>892.575</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-7.899</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.493</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.204</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.677</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.539</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" t="n">
+        <v>416.483</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1099.195</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.923</v>
+      </c>
+      <c r="E7" t="n">
+        <v>651.147</v>
+      </c>
+      <c r="F7" t="n">
+        <v>913.566</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-16.888</v>
+      </c>
+      <c r="H7" t="n">
+        <v>587.395</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-9.791</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.673</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.158</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.778</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" t="n">
+        <v>679.712</v>
+      </c>
+      <c r="C8" t="n">
+        <v>732.4109999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.753</v>
+      </c>
+      <c r="E8" t="n">
+        <v>481.052</v>
+      </c>
+      <c r="F8" t="n">
+        <v>723.274</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.247</v>
+      </c>
+      <c r="H8" t="n">
+        <v>496.538</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.832</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.782</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" t="n">
+        <v>628.779</v>
+      </c>
+      <c r="C9" t="n">
+        <v>714.199</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.585</v>
+      </c>
+      <c r="E9" t="n">
+        <v>443.226</v>
+      </c>
+      <c r="F9" t="n">
+        <v>631.777</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-11.54</v>
+      </c>
+      <c r="H9" t="n">
+        <v>374.046</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-15.608</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.686</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.511</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.304</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="n">
+        <v>404.489</v>
+      </c>
+      <c r="C10" t="n">
+        <v>388.952</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3.841</v>
+      </c>
+      <c r="E10" t="n">
+        <v>264.512</v>
+      </c>
+      <c r="F10" t="n">
+        <v>427.43</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.893000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>301.279</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" t="n">
+        <v>222.686</v>
+      </c>
+      <c r="C11" t="n">
+        <v>217.899</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-2.149</v>
+      </c>
+      <c r="E11" t="n">
+        <v>195.368</v>
+      </c>
+      <c r="F11" t="n">
+        <v>327.747</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50.412</v>
+      </c>
+      <c r="H11" t="n">
+        <v>258.837</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32.487</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.548</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" t="n">
+        <v>254.671</v>
+      </c>
+      <c r="C12" t="n">
+        <v>219.395</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-13.852</v>
+      </c>
+      <c r="E12" t="n">
+        <v>177.562</v>
+      </c>
+      <c r="F12" t="n">
+        <v>308.675</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40.694</v>
+      </c>
+      <c r="H12" t="n">
+        <v>176.382</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.664</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.407</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.614</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" t="n">
+        <v>190.633</v>
+      </c>
+      <c r="C13" t="n">
+        <v>153.62</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-19.416</v>
+      </c>
+      <c r="E13" t="n">
+        <v>107.266</v>
+      </c>
+      <c r="F13" t="n">
+        <v>134.484</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-12.457</v>
+      </c>
+      <c r="H13" t="n">
+        <v>131.221</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22.332</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" t="n">
+        <v>225.424</v>
+      </c>
+      <c r="C14" t="n">
+        <v>232.059</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="E14" t="n">
+        <v>132.603</v>
+      </c>
+      <c r="F14" t="n">
+        <v>216.974</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-6.501</v>
+      </c>
+      <c r="H14" t="n">
+        <v>118.451</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-10.672</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.198</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" t="n">
+        <v>269.263</v>
+      </c>
+      <c r="C15" t="n">
+        <v>221.77</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-17.638</v>
+      </c>
+      <c r="E15" t="n">
+        <v>149.976</v>
+      </c>
+      <c r="F15" t="n">
+        <v>201.228</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-9.263</v>
+      </c>
+      <c r="H15" t="n">
+        <v>92.011</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-38.65</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" t="n">
+        <v>177.424</v>
+      </c>
+      <c r="C16" t="n">
+        <v>519.6660000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>192.895</v>
+      </c>
+      <c r="E16" t="n">
+        <v>103.881</v>
+      </c>
+      <c r="F16" t="n">
+        <v>167.34</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-67.798</v>
+      </c>
+      <c r="H16" t="n">
+        <v>64.962</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-37.465</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.682</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="n">
+        <v>83.803</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77.175</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="E17" t="n">
+        <v>54.613</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.40600000000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24.919</v>
+      </c>
+      <c r="H17" t="n">
+        <v>49.125</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" t="n">
+        <v>78.399</v>
+      </c>
+      <c r="C18" t="n">
+        <v>66.52200000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-15.15</v>
+      </c>
+      <c r="E18" t="n">
+        <v>39.286</v>
+      </c>
+      <c r="F18" t="n">
+        <v>61.881</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-6.976</v>
+      </c>
+      <c r="H18" t="n">
+        <v>37.428</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-4.729</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" t="n">
+        <v>81.251</v>
+      </c>
+      <c r="C19" t="n">
+        <v>65.742</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-19.088</v>
+      </c>
+      <c r="E19" t="n">
+        <v>40.848</v>
+      </c>
+      <c r="F19" t="n">
+        <v>67.29600000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30.745</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-24.733</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8.433</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.756</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-8.037000000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13.608</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14.774</v>
+      </c>
+      <c r="G20" t="n">
+        <v>90.49299999999999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21.104</v>
+      </c>
+      <c r="I20" t="n">
+        <v>55.084</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" t="n">
+        <v>114.743</v>
+      </c>
+      <c r="C21" t="n">
+        <v>43.598</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-62.004</v>
+      </c>
+      <c r="E21" t="n">
+        <v>25.169</v>
+      </c>
+      <c r="F21" t="n">
+        <v>39.275</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-9.916</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19.587</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-22.177</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" t="n">
+        <v>68.601</v>
+      </c>
+      <c r="C22" t="n">
+        <v>54.991</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-19.84</v>
+      </c>
+      <c r="E22" t="n">
+        <v>35.568</v>
+      </c>
+      <c r="F22" t="n">
+        <v>47.739</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-13.186</v>
+      </c>
+      <c r="H22" t="n">
+        <v>17.587</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-50.554</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31.306</v>
+      </c>
+      <c r="C23" t="n">
+        <v>20.128</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-35.706</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20.519</v>
+      </c>
+      <c r="F23" t="n">
+        <v>31.408</v>
+      </c>
+      <c r="G23" t="n">
+        <v>56.044</v>
+      </c>
+      <c r="H23" t="n">
+        <v>16.234</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-20.885</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" t="n">
+        <v>38.083</v>
+      </c>
+      <c r="C24" t="n">
+        <v>35.417</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-7.001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.445</v>
+      </c>
+      <c r="F24" t="n">
+        <v>32.413</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-8.478999999999999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>14.704</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-42.211</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23.665</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16.177</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-31.641</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17.558</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8.536</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12.977</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.882999999999999</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" t="n">
+        <v>21.023</v>
+      </c>
+      <c r="C26" t="n">
+        <v>17.912</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-14.797</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10.037</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15.918</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-11.13</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12.876</v>
+      </c>
+      <c r="I26" t="n">
+        <v>28.285</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14.004</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10.226</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-26.983</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.569</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11.144</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.981</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10.241</v>
+      </c>
+      <c r="I27" t="n">
+        <v>35.307</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20.593</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11.617</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-43.588</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.357</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.186</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9.824</v>
+      </c>
+      <c r="I28" t="n">
+        <v>54.534</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8.103</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.669</v>
+      </c>
+      <c r="D29" t="n">
+        <v>19.333</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10.503</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14.036</v>
+      </c>
+      <c r="G29" t="n">
+        <v>45.167</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9.544</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-9.135999999999999</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" t="n">
+        <v>19.479</v>
+      </c>
+      <c r="C30" t="n">
+        <v>78.55200000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>303.272</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.255</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12.254</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-84.40000000000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.257999999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>117.581</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20.368</v>
+      </c>
+      <c r="C31" t="n">
+        <v>18.635</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-8.507</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10.675</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-14.623</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7.791</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-27.013</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8.743</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.714</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-34.646</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.847</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.247999999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>61.85</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.932</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" t="n">
+        <v>46.806</v>
+      </c>
+      <c r="C33" t="n">
+        <v>39.502</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-15.606</v>
+      </c>
+      <c r="E33" t="n">
+        <v>16.178</v>
+      </c>
+      <c r="F33" t="n">
+        <v>24.627</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-37.657</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.434</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-72.593</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="D34" t="n">
+        <v>199.829</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.701</v>
+      </c>
+      <c r="I34" t="n">
+        <v>376.513</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5.774</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-79.998</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.472</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="G35" t="n">
+        <v>379.717</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.746</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-38.611</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.346</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="D36" t="n">
+        <v>75.812</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-55.495</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="I36" t="n">
+        <v>88.961</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.446</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.979</v>
+      </c>
+      <c r="D37" t="n">
+        <v>62.698</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-65.062</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-75.44799999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
